--- a/Algemeen/Scrumlog/Invulblad.xlsx
+++ b/Algemeen/Scrumlog/Invulblad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlo\AppData\Roaming\Microsoft\Windows\Network Shortcuts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\FPS\Algemeen\Scrumlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Week #</t>
   </si>
@@ -71,52 +71,16 @@
     <t>Team Asylum</t>
   </si>
   <si>
-    <t>Carlo Zine Rief Marc Robin Michiel Sam</t>
-  </si>
-  <si>
-    <t>Moodboard Drawings</t>
-  </si>
-  <si>
-    <t>Gunscript</t>
-  </si>
-  <si>
-    <t>Planning , Assetlist , Blockout Help</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moodboard Drawings , </t>
-  </si>
-  <si>
-    <t>Assets bedenken , Blockout</t>
-  </si>
-  <si>
-    <t>Concept Art</t>
-  </si>
-  <si>
-    <t>References , Concept</t>
-  </si>
-  <si>
-    <t>Assets bedenken , Gun Script</t>
-  </si>
-  <si>
-    <t>Assetlist , Trello</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Research Charater Controller</t>
-  </si>
-  <si>
-    <t>Tiling Textures</t>
-  </si>
-  <si>
     <t>Wat gaat er goed?</t>
   </si>
   <si>
     <t>Wat kan er beter</t>
   </si>
   <si>
-    <t xml:space="preserve"> Team Spirit</t>
-  </si>
-  <si>
-    <t>Serieusheid Scrum</t>
+    <t>Carlo Zine Marc Sam</t>
+  </si>
+  <si>
+    <t>Rief , Michiel , Robin</t>
   </si>
 </sst>
 </file>
@@ -366,6 +330,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -401,6 +382,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -555,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +565,7 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -595,7 +593,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -608,7 +606,9 @@
         <v>2</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -632,9 +632,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -646,9 +644,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -660,9 +656,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -674,9 +668,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -688,9 +680,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -702,9 +692,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -716,9 +704,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -742,9 +728,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -756,9 +740,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -770,9 +752,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -784,9 +764,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -798,9 +776,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -824,9 +800,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -931,12 +905,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -955,12 +927,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>

--- a/Algemeen/Scrumlog/Invulblad.xlsx
+++ b/Algemeen/Scrumlog/Invulblad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>Week #</t>
   </si>
@@ -81,6 +81,51 @@
   </si>
   <si>
     <t>Rief , Michiel , Robin</t>
+  </si>
+  <si>
+    <t>Shotgun</t>
+  </si>
+  <si>
+    <t>Gunscript</t>
+  </si>
+  <si>
+    <t>Player Controller</t>
+  </si>
+  <si>
+    <t>unwrap pistol</t>
+  </si>
+  <si>
+    <t>main menu</t>
+  </si>
+  <si>
+    <t>Main Character</t>
+  </si>
+  <si>
+    <t>Muren en Textures</t>
+  </si>
+  <si>
+    <t>Shotgun texture</t>
+  </si>
+  <si>
+    <t>Planning volgen</t>
+  </si>
+  <si>
+    <t>Planning Maken</t>
+  </si>
+  <si>
+    <t>Texture en Animatie</t>
+  </si>
+  <si>
+    <t>Main Character]</t>
+  </si>
+  <si>
+    <t>Waarom zo boos?(-zine)</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Team Spirit</t>
   </si>
 </sst>
 </file>
@@ -632,7 +677,9 @@
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -644,7 +691,9 @@
         <v>5</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -656,7 +705,9 @@
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -668,7 +719,9 @@
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -680,7 +733,9 @@
         <v>8</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -692,7 +747,9 @@
         <v>9</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -704,7 +761,9 @@
         <v>10</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -728,7 +787,9 @@
         <v>4</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -740,7 +801,9 @@
         <v>5</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -752,7 +815,9 @@
         <v>6</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -764,7 +829,9 @@
         <v>7</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -776,7 +843,9 @@
         <v>8</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -788,7 +857,9 @@
         <v>9</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -800,7 +871,9 @@
         <v>10</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -836,7 +909,9 @@
         <v>5</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -848,7 +923,9 @@
         <v>6</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -908,7 +985,9 @@
         <v>15</v>
       </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>

--- a/Algemeen/Scrumlog/Invulblad.xlsx
+++ b/Algemeen/Scrumlog/Invulblad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Week #</t>
   </si>
@@ -77,55 +77,46 @@
     <t>Wat kan er beter</t>
   </si>
   <si>
-    <t>Carlo Zine Marc Sam</t>
-  </si>
-  <si>
-    <t>Rief , Michiel , Robin</t>
-  </si>
-  <si>
-    <t>Shotgun</t>
-  </si>
-  <si>
-    <t>Gunscript</t>
-  </si>
-  <si>
-    <t>Player Controller</t>
-  </si>
-  <si>
-    <t>unwrap pistol</t>
-  </si>
-  <si>
-    <t>main menu</t>
-  </si>
-  <si>
-    <t>Main Character</t>
-  </si>
-  <si>
-    <t>Muren en Textures</t>
-  </si>
-  <si>
-    <t>Shotgun texture</t>
-  </si>
-  <si>
-    <t>Planning volgen</t>
-  </si>
-  <si>
-    <t>Planning Maken</t>
-  </si>
-  <si>
-    <t>Texture en Animatie</t>
-  </si>
-  <si>
-    <t>Main Character]</t>
-  </si>
-  <si>
-    <t>Waarom zo boos?(-zine)</t>
-  </si>
-  <si>
-    <t>Anxiety</t>
-  </si>
-  <si>
-    <t>Team Spirit</t>
+    <t>Michiel Sam</t>
+  </si>
+  <si>
+    <t>Carlo Zine Marc Robin Rief</t>
+  </si>
+  <si>
+    <t>Package Fixen &amp; Ak</t>
+  </si>
+  <si>
+    <t>Enemy AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tafel </t>
+  </si>
+  <si>
+    <t>Inspecting</t>
+  </si>
+  <si>
+    <t>Kalashikov , Calender</t>
+  </si>
+  <si>
+    <t>Enemy Ai Afmaken</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Butcher Knife , Tafel fix</t>
+  </si>
+  <si>
+    <t>Inspecting , Levelbouw</t>
+  </si>
+  <si>
+    <t>Afwezigheid</t>
+  </si>
+  <si>
+    <t>De collegiale Comunicatie in het fasinerende project.</t>
+  </si>
+  <si>
+    <t>Concerstratie Scrum</t>
   </si>
 </sst>
 </file>
@@ -610,7 +601,7 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -638,7 +629,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -652,7 +643,7 @@
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -705,9 +696,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -720,7 +709,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -734,7 +723,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -747,9 +736,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -761,9 +748,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -788,7 +773,7 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -802,7 +787,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -816,7 +801,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -830,7 +815,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -844,7 +829,7 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -857,9 +842,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -871,9 +854,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -897,7 +878,9 @@
         <v>4</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -909,9 +892,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -923,9 +904,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -986,7 +965,7 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1009,7 +988,9 @@
         <v>16</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>

--- a/Algemeen/Scrumlog/Invulblad.xlsx
+++ b/Algemeen/Scrumlog/Invulblad.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>Week #</t>
   </si>
@@ -77,46 +77,55 @@
     <t>Wat kan er beter</t>
   </si>
   <si>
-    <t>Michiel Sam</t>
-  </si>
-  <si>
-    <t>Carlo Zine Marc Robin Rief</t>
-  </si>
-  <si>
-    <t>Package Fixen &amp; Ak</t>
-  </si>
-  <si>
-    <t>Enemy AI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tafel </t>
-  </si>
-  <si>
-    <t>Inspecting</t>
-  </si>
-  <si>
-    <t>Kalashikov , Calender</t>
-  </si>
-  <si>
-    <t>Enemy Ai Afmaken</t>
-  </si>
-  <si>
-    <t>Planning</t>
-  </si>
-  <si>
-    <t>Butcher Knife , Tafel fix</t>
-  </si>
-  <si>
-    <t>Inspecting , Levelbouw</t>
-  </si>
-  <si>
-    <t>Afwezigheid</t>
-  </si>
-  <si>
-    <t>De collegiale Comunicatie in het fasinerende project.</t>
-  </si>
-  <si>
-    <t>Concerstratie Scrum</t>
+    <t>Carlo Zine Marc Sam</t>
+  </si>
+  <si>
+    <t>Rief , Michiel , Robin</t>
+  </si>
+  <si>
+    <t>Shotgun</t>
+  </si>
+  <si>
+    <t>Gunscript</t>
+  </si>
+  <si>
+    <t>Player Controller</t>
+  </si>
+  <si>
+    <t>unwrap pistol</t>
+  </si>
+  <si>
+    <t>main menu</t>
+  </si>
+  <si>
+    <t>Main Character</t>
+  </si>
+  <si>
+    <t>Muren en Textures</t>
+  </si>
+  <si>
+    <t>Shotgun texture</t>
+  </si>
+  <si>
+    <t>Planning volgen</t>
+  </si>
+  <si>
+    <t>Planning Maken</t>
+  </si>
+  <si>
+    <t>Texture en Animatie</t>
+  </si>
+  <si>
+    <t>Main Character]</t>
+  </si>
+  <si>
+    <t>Waarom zo boos?(-zine)</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Team Spirit</t>
   </si>
 </sst>
 </file>
@@ -601,7 +610,7 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -629,7 +638,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -643,7 +652,7 @@
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -696,7 +705,9 @@
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -709,7 +720,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -723,7 +734,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -736,7 +747,9 @@
         <v>9</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -748,7 +761,9 @@
         <v>10</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -773,7 +788,7 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -787,7 +802,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -801,7 +816,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -815,7 +830,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -829,7 +844,7 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -842,7 +857,9 @@
         <v>9</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -854,7 +871,9 @@
         <v>10</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -878,9 +897,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -892,7 +909,9 @@
         <v>5</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -904,7 +923,9 @@
         <v>6</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -965,7 +986,7 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -988,9 +1009,7 @@
         <v>16</v>
       </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
